--- a/Data Files/Test Environments/Environment.xlsx
+++ b/Data Files/Test Environments/Environment.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chweya\Katalon Studio\MKOPA LOGIN\Data Files\Test Environments\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dennis.gituto\git\MKOPA_Regression_Test_Channel\Data Files\Test Environments\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -31,13 +31,13 @@
     <t>url</t>
   </si>
   <si>
-    <t>https://nm.m-kopa.net</t>
+    <t>https://ke_uat.kopasolar.net/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -363,7 +363,7 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -385,9 +385,6 @@
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
